--- a/アクション一覧.xlsx
+++ b/アクション一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\小林響\Documents\ワンピカード\onepiece-card\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F4B361-4FF6-4FB2-9C2A-9DFE608507DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4781A15-4938-486D-844E-70A2FA452A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18007" yWindow="1598" windowWidth="18105" windowHeight="12105" xr2:uid="{9BF7BDEE-3B38-4EC7-9C34-6BC79D5E334B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BF7BDEE-3B38-4EC7-9C34-6BC79D5E334B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="62">
   <si>
     <t>エリア</t>
     <phoneticPr fontId="1"/>
@@ -391,6 +391,10 @@
   </si>
   <si>
     <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -790,7 +794,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -819,7 +823,7 @@
     </row>
     <row r="3" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -833,7 +837,7 @@
     </row>
     <row r="4" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -847,7 +851,7 @@
     </row>
     <row r="5" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -861,7 +865,7 @@
     </row>
     <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -875,7 +879,7 @@
     </row>
     <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -889,7 +893,7 @@
     </row>
     <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -903,7 +907,7 @@
     </row>
     <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -917,7 +921,7 @@
     </row>
     <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -931,7 +935,7 @@
     </row>
     <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -943,7 +947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
@@ -957,9 +961,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -971,9 +975,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -987,7 +991,7 @@
     </row>
     <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -1001,7 +1005,7 @@
     </row>
     <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
@@ -1015,7 +1019,7 @@
     </row>
     <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -1029,7 +1033,7 @@
     </row>
     <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -1043,7 +1047,7 @@
     </row>
     <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>34</v>
@@ -1057,7 +1061,7 @@
     </row>
     <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>34</v>
@@ -1071,7 +1075,7 @@
     </row>
     <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>34</v>
@@ -1085,7 +1089,7 @@
     </row>
     <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -1099,7 +1103,7 @@
     </row>
     <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>34</v>
@@ -1113,7 +1117,7 @@
     </row>
     <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>34</v>
@@ -1127,7 +1131,7 @@
     </row>
     <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>34</v>
@@ -1141,7 +1145,7 @@
     </row>
     <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>34</v>
@@ -1153,9 +1157,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>34</v>
@@ -1169,7 +1173,7 @@
     </row>
     <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>34</v>
@@ -1183,7 +1187,7 @@
     </row>
     <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>43</v>
@@ -1197,7 +1201,7 @@
     </row>
     <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>43</v>
@@ -1211,7 +1215,7 @@
     </row>
     <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>43</v>
@@ -1225,7 +1229,7 @@
     </row>
     <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>44</v>
@@ -1239,7 +1243,7 @@
     </row>
     <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>44</v>
@@ -1253,7 +1257,7 @@
     </row>
     <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>44</v>
@@ -1267,7 +1271,7 @@
     </row>
     <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>44</v>
@@ -1281,7 +1285,7 @@
     </row>
     <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B36" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>44</v>
@@ -1295,7 +1299,7 @@
     </row>
     <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>44</v>
@@ -1309,7 +1313,7 @@
     </row>
     <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>44</v>
@@ -1323,7 +1327,7 @@
     </row>
     <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>45</v>
@@ -1337,7 +1341,7 @@
     </row>
     <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B40" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>45</v>
@@ -1351,7 +1355,7 @@
     </row>
     <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>45</v>
@@ -1365,7 +1369,7 @@
     </row>
     <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>45</v>
@@ -1379,7 +1383,7 @@
     </row>
     <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>49</v>
@@ -1393,7 +1397,7 @@
     </row>
     <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>49</v>
@@ -1407,7 +1411,7 @@
     </row>
     <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>49</v>
@@ -1421,7 +1425,7 @@
     </row>
     <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>49</v>
@@ -1435,7 +1439,7 @@
     </row>
     <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>49</v>
@@ -1449,7 +1453,7 @@
     </row>
     <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>49</v>
@@ -1463,7 +1467,7 @@
     </row>
     <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>49</v>
@@ -1477,7 +1481,7 @@
     </row>
     <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>49</v>
@@ -1489,9 +1493,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>49</v>
@@ -1505,7 +1509,7 @@
     </row>
     <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>49</v>
@@ -1519,7 +1523,7 @@
     </row>
     <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>50</v>
@@ -1533,7 +1537,7 @@
     </row>
     <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>50</v>
@@ -1547,7 +1551,7 @@
     </row>
     <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>54</v>
@@ -1561,7 +1565,7 @@
     </row>
     <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>54</v>
@@ -1575,7 +1579,7 @@
     </row>
     <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>3</v>
@@ -1589,7 +1593,7 @@
     </row>
     <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
@@ -1603,7 +1607,7 @@
     </row>
     <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>55</v>
@@ -1617,7 +1621,7 @@
     </row>
     <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>55</v>
@@ -1631,7 +1635,7 @@
     </row>
     <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B61" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>55</v>
@@ -1645,7 +1649,7 @@
     </row>
     <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B62" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>55</v>
@@ -1659,7 +1663,7 @@
     </row>
     <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>55</v>
@@ -1671,9 +1675,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B64" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>55</v>
@@ -1687,7 +1691,7 @@
     </row>
     <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B65" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>55</v>
@@ -1701,7 +1705,7 @@
     </row>
     <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B66" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>57</v>
@@ -1715,7 +1719,7 @@
     </row>
     <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>57</v>
@@ -1729,7 +1733,7 @@
     </row>
     <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>57</v>
@@ -1743,7 +1747,7 @@
     </row>
     <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>57</v>
@@ -1757,7 +1761,7 @@
     </row>
     <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>57</v>
@@ -1769,9 +1773,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>57</v>
@@ -1785,7 +1789,7 @@
     </row>
     <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>57</v>
@@ -1799,9 +1803,9 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:E72" xr:uid="{61D7C134-482F-4A2B-A991-91C3F5E7B4C1}">
-    <filterColumn colId="2">
+    <filterColumn colId="0">
       <filters>
-        <filter val="To：キャラエリア"/>
+        <filter val="○"/>
       </filters>
     </filterColumn>
   </autoFilter>
